--- a/public/static/交通电力通信-道路交通损毁及抢修情况统计表.xlsx
+++ b/public/static/交通电力通信-道路交通损毁及抢修情况统计表.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="道路交通损毁及抢修情况" sheetId="1" r:id="rId1"/>
     <sheet name="字段填写说明表" sheetId="2" r:id="rId2"/>
     <sheet name="雅安市县区列表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>道路交通损毁及抢修情况</t>
   </si>
@@ -220,23 +233,69 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d\ h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -245,61 +304,147 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="微软雅黑"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,21 +453,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -354,109 +676,366 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,7 +1084,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -538,26 +1117,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -590,23 +1152,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -748,387 +1293,383 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.5" defaultRowHeight="14.002500000000003" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="20.666015625" customWidth="1" style="11"/>
-    <col min="4" max="4" width="19.998046875" customWidth="1" style="25"/>
+    <col min="3" max="3" width="20.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="18"/>
     </row>
-    <row r="2" ht="14" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" customHeight="1" spans="1:11">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="14" customHeight="1">
-      <c r="A3" s="22" t="s">
+    <row r="3" customHeight="1" spans="1:11">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23" t="n">
-        <v>44713.70842592593</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="16">
+        <v>44713.7084259259</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="24" t="n">
+      <c r="H3" s="15">
         <v>50</v>
       </c>
-      <c r="I3" s="24" t="n">
+      <c r="I3" s="15">
         <v>10</v>
       </c>
-      <c r="J3" s="24" t="n">
+      <c r="J3" s="15">
         <v>5</v>
       </c>
-      <c r="K3" s="24" t="n">
+      <c r="K3" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14" customHeight="1">
-      <c r="A4" s="24" t="s">
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="23" t="n">
-        <v>44713.70842592593</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="16">
+        <v>44713.7084259259</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="24" t="n">
+      <c r="H4" s="15">
         <v>60</v>
       </c>
-      <c r="I4" s="24" t="n">
+      <c r="I4" s="15">
         <v>15</v>
       </c>
-      <c r="J4" s="24" t="n">
+      <c r="J4" s="15">
         <v>8</v>
       </c>
-      <c r="K4" s="24" t="n">
+      <c r="K4" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14" customHeight="1">
-      <c r="A5" s="24" t="s">
+    <row r="5" customHeight="1" spans="1:11">
+      <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="23" t="n">
-        <v>44713.70842592593</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="16">
+        <v>44713.7084259259</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="24" t="n">
+      <c r="H5" s="15">
         <v>75</v>
       </c>
-      <c r="I5" s="24" t="n">
+      <c r="I5" s="15">
         <v>20</v>
       </c>
-      <c r="J5" s="24" t="n">
+      <c r="J5" s="15">
         <v>12</v>
       </c>
-      <c r="K5" s="24" t="n">
+      <c r="K5" s="15">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1">
-      <c r="A6" s="22" t="s">
+    <row r="6" customHeight="1" spans="1:11">
+      <c r="A6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="23" t="n">
-        <v>44713.70842592593</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="16">
+        <v>44713.7084259259</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="24" t="n">
+      <c r="H6" s="15">
         <v>80</v>
       </c>
-      <c r="I6" s="24" t="n">
+      <c r="I6" s="15">
         <v>25</v>
       </c>
-      <c r="J6" s="24" t="n">
+      <c r="J6" s="15">
         <v>15</v>
       </c>
-      <c r="K6" s="24" t="n">
+      <c r="K6" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1">
-      <c r="A7" s="24" t="s">
+    <row r="7" customHeight="1" spans="1:11">
+      <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="23" t="n">
-        <v>44713.70842592593</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="16">
+        <v>44713.7084259259</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="24" t="n">
+      <c r="H7" s="15">
         <v>90</v>
       </c>
-      <c r="I7" s="24" t="n">
+      <c r="I7" s="15">
         <v>30</v>
       </c>
-      <c r="J7" s="24" t="n">
+      <c r="J7" s="15">
         <v>20</v>
       </c>
-      <c r="K7" s="24" t="n">
+      <c r="K7" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="14" customHeight="1">
-      <c r="A8" s="24" t="s">
+    <row r="8" customHeight="1" spans="1:11">
+      <c r="A8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="23" t="n">
-        <v>44713.70842592593</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="16">
+        <v>44713.7084259259</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="24" t="n">
+      <c r="H8" s="15">
         <v>100</v>
       </c>
-      <c r="I8" s="24" t="n">
+      <c r="I8" s="15">
         <v>35</v>
       </c>
-      <c r="J8" s="24" t="n">
+      <c r="J8" s="15">
         <v>25</v>
       </c>
-      <c r="K8" s="24" t="n">
+      <c r="K8" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="14" customHeight="1">
-      <c r="A9" s="24" t="s">
+    <row r="9" customHeight="1" spans="1:11">
+      <c r="A9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="23" t="n">
-        <v>44713.70842592593</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="16">
+        <v>44713.7084259259</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="24" t="n">
+      <c r="H9" s="15">
         <v>110</v>
       </c>
-      <c r="I9" s="24" t="n">
+      <c r="I9" s="15">
         <v>40</v>
       </c>
-      <c r="J9" s="24" t="n">
+      <c r="J9" s="15">
         <v>30</v>
       </c>
-      <c r="K9" s="24" t="n">
+      <c r="K9" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="24" t="s">
+    <row r="10" customHeight="1" spans="1:11">
+      <c r="A10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="23" t="n">
-        <v>44713.70842592593</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="22" t="s">
+      <c r="B10" s="16">
+        <v>44713.7084259259</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="24" t="n">
+      <c r="H10" s="15">
         <v>120</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="15">
         <v>45</v>
       </c>
-      <c r="J10" s="24" t="n">
+      <c r="J10" s="15">
         <v>35</v>
       </c>
-      <c r="K10" s="24" t="n">
+      <c r="K10" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="14" customHeight="1">
-      <c r="A11" s="19" t="s">
+    <row r="11" customHeight="1" spans="1:11">
+      <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="26" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:11">
+      <c r="A12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1136,104 +1677,106 @@
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C1048576 C13:C20 A3:A10">
-      <formula1>'雅安市县区列表'!$A$2:$A$9</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A10 C13:C20 C22:C1048576">
+      <formula1>雅安市县区列表!$A$2:$A$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8330078125" defaultRowHeight="14.002500000000003" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="14.666015625" customWidth="1" style="11"/>
-    <col min="2" max="2" width="15.3310546875" customWidth="1" style="11"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1" style="11"/>
-    <col min="4" max="5" width="15.9990234375" customWidth="1" style="11"/>
-    <col min="6" max="7" width="16.3330078125" customWidth="1" style="11"/>
-    <col min="8" max="8" width="15.9990234375" customWidth="1" style="11"/>
-    <col min="9" max="9" width="15.498046875" customWidth="1" style="11"/>
+    <col min="1" max="1" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="14" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="6" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" ht="14" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" ht="42" customHeight="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="7" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1241,72 +1784,74 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8330078125" defaultRowHeight="14.002500000000003" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.9990234375" customWidth="1" style="11"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" ht="14" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="14" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" customHeight="1" spans="1:1">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="14" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="14" customHeight="1">
-      <c r="A5" s="6" t="s">
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1">
-      <c r="A6" s="6" t="s">
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" ht="14" customHeight="1">
-      <c r="A8" s="6" t="s">
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" ht="14" customHeight="1">
-      <c r="A9" s="6" t="s">
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/static/交通电力通信-道路交通损毁及抢修情况统计表.xlsx
+++ b/public/static/交通电力通信-道路交通损毁及抢修情况统计表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>道路交通损毁及抢修情况</t>
   </si>
@@ -65,129 +65,6 @@
   </si>
   <si>
     <t>待抢修（公里）</t>
-  </si>
-  <si>
-    <t>雨城区</t>
-  </si>
-  <si>
-    <t>G5京昆高速（雅安段）</t>
-  </si>
-  <si>
-    <t>S101省道（雨城区段）</t>
-  </si>
-  <si>
-    <t>中里镇东风村</t>
-  </si>
-  <si>
-    <t>北郊镇永兴村</t>
-  </si>
-  <si>
-    <t>多营镇新桥村</t>
-  </si>
-  <si>
-    <t>名山区</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>新繁乡岩头村</t>
-  </si>
-  <si>
-    <t>雨城镇渔溪村</t>
-  </si>
-  <si>
-    <t>名山镇名山村</t>
-  </si>
-  <si>
-    <t>荥经县</t>
-  </si>
-  <si>
-    <t>G5京昆高速（荥经段）</t>
-  </si>
-  <si>
-    <t>羊丰乡柳树村</t>
-  </si>
-  <si>
-    <t>关刀乡树德村</t>
-  </si>
-  <si>
-    <t>天全乡矮坪村</t>
-  </si>
-  <si>
-    <t>汉源县</t>
-  </si>
-  <si>
-    <t>G318国道（汉源段）</t>
-  </si>
-  <si>
-    <t>S104省道（汉源段</t>
-  </si>
-  <si>
-    <t>大渡口乡大渡口村</t>
-  </si>
-  <si>
-    <t>大渡口乡河口村</t>
-  </si>
-  <si>
-    <t>白果乡白果坝村</t>
-  </si>
-  <si>
-    <t>石棉县</t>
-  </si>
-  <si>
-    <t>S103省道（石棉段</t>
-  </si>
-  <si>
-    <t>石棉镇和平村</t>
-  </si>
-  <si>
-    <t>普济乡普济乡</t>
-  </si>
-  <si>
-    <t>江安乡江安村</t>
-  </si>
-  <si>
-    <t>天全县</t>
-  </si>
-  <si>
-    <t>S106省道（天全段</t>
-  </si>
-  <si>
-    <t>白水乡白水村</t>
-  </si>
-  <si>
-    <t>天全镇小河村</t>
-  </si>
-  <si>
-    <t>龙门乡福兴村</t>
-  </si>
-  <si>
-    <t>芦山县</t>
-  </si>
-  <si>
-    <t>G5京昆高速（）</t>
-  </si>
-  <si>
-    <t>芦阳镇中心村</t>
-  </si>
-  <si>
-    <t>双河乡双河村</t>
-  </si>
-  <si>
-    <t>草坝乡塔子村</t>
-  </si>
-  <si>
-    <t>宝兴县</t>
-  </si>
-  <si>
-    <t>青龙乡花水村</t>
-  </si>
-  <si>
-    <t>雅江乡石坝村</t>
-  </si>
-  <si>
-    <t>南浦乡三河村</t>
   </si>
   <si>
     <t>填写单位：交通保障组（市交通运输局）</t>
@@ -228,6 +105,33 @@
   </si>
   <si>
     <t>雅安市县区列表</t>
+  </si>
+  <si>
+    <t>当前时间</t>
+  </si>
+  <si>
+    <t>雨城区</t>
+  </si>
+  <si>
+    <t>名山区</t>
+  </si>
+  <si>
+    <t>荥经县</t>
+  </si>
+  <si>
+    <t>汉源县</t>
+  </si>
+  <si>
+    <t>石棉县</t>
+  </si>
+  <si>
+    <t>天全县</t>
+  </si>
+  <si>
+    <t>芦山县</t>
+  </si>
+  <si>
+    <t>宝兴县</t>
   </si>
 </sst>
 </file>
@@ -241,7 +145,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +165,14 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -644,12 +556,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -779,167 +706,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -947,37 +883,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1301,385 +1240,123 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="14" customHeight="1" outlineLevelRow="4"/>
   <cols>
     <col min="3" max="3" width="20.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16">
-        <v>44713.7084259259</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:11">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="15">
-        <v>50</v>
-      </c>
-      <c r="I3" s="15">
-        <v>10</v>
-      </c>
-      <c r="J3" s="15">
-        <v>5</v>
-      </c>
-      <c r="K3" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="16">
-        <v>44713.7084259259</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="15">
-        <v>60</v>
-      </c>
-      <c r="I4" s="15">
-        <v>15</v>
-      </c>
-      <c r="J4" s="15">
-        <v>8</v>
-      </c>
-      <c r="K4" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:11">
-      <c r="A5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="16">
-        <v>44713.7084259259</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="15">
-        <v>75</v>
-      </c>
-      <c r="I5" s="15">
-        <v>20</v>
-      </c>
-      <c r="J5" s="15">
-        <v>12</v>
-      </c>
-      <c r="K5" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:11">
-      <c r="A6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="16">
-        <v>44713.7084259259</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="15">
-        <v>80</v>
-      </c>
-      <c r="I6" s="15">
-        <v>25</v>
-      </c>
-      <c r="J6" s="15">
-        <v>15</v>
-      </c>
-      <c r="K6" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="16">
-        <v>44713.7084259259</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="15">
-        <v>90</v>
-      </c>
-      <c r="I7" s="15">
-        <v>30</v>
-      </c>
-      <c r="J7" s="15">
-        <v>20</v>
-      </c>
-      <c r="K7" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="16">
-        <v>44713.7084259259</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="15">
-        <v>100</v>
-      </c>
-      <c r="I8" s="15">
-        <v>35</v>
-      </c>
-      <c r="J8" s="15">
-        <v>25</v>
-      </c>
-      <c r="K8" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:11">
-      <c r="A9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="16">
-        <v>44713.7084259259</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="15">
-        <v>110</v>
-      </c>
-      <c r="I9" s="15">
-        <v>40</v>
-      </c>
-      <c r="J9" s="15">
-        <v>30</v>
-      </c>
-      <c r="K9" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="16">
-        <v>44713.7084259259</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="15">
-        <v>120</v>
-      </c>
-      <c r="I10" s="15">
-        <v>45</v>
-      </c>
-      <c r="J10" s="15">
-        <v>35</v>
-      </c>
-      <c r="K10" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:11">
-      <c r="A11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:11">
-      <c r="A12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A10 C13:C20 C22:C1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 C6:C13 C15:C1048576">
       <formula1>雅安市县区列表!$A$2:$A$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>雅安市县区列表!$B$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1709,75 +1386,75 @@
     <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>64</v>
+    <row r="3" s="10" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1794,61 +1471,76 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5">
+        <f ca="1">NOW()</f>
+        <v>45604.7946412037</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/static/交通电力通信-道路交通损毁及抢修情况统计表.xlsx
+++ b/public/static/交通电力通信-道路交通损毁及抢修情况统计表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\big_project\yaan_project\yaan-vue3\public\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D9E0AA-9B6D-4110-B9B3-4D417DB5D9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道路交通损毁及抢修情况" sheetId="1" r:id="rId1"/>
@@ -20,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>道路交通损毁及抢修情况</t>
   </si>
@@ -132,20 +136,20 @@
   </si>
   <si>
     <t>宝兴县</t>
+  </si>
+  <si>
+    <t>统计截止时间格式：2025/1/8  10:28:00</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +161,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -164,6 +169,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -171,6 +177,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -178,185 +185,46 @@
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,182 +249,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -605,276 +299,69 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -883,98 +370,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1232,90 +684,91 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="14" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="22.4609375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:11">
+    <row r="3" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
@@ -1330,7 +783,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:11">
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
@@ -1351,123 +804,135 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 C6:C13 C15:C1048576">
-      <formula1>雅安市县区列表!$A$2:$A$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>雅安市县区列表!$B$2</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>雅安市县区列表!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3 C6:C13 C15:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3046875" style="1" customWidth="1"/>
     <col min="4" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.3046875" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.4609375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="J2" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="24" t="s">
         <v>23</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1477,13 +942,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375"/>
+    <col min="2" max="2" width="15.3828125"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1491,59 +956,59 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>45604.7946412037</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
+        <v>45665.46816689815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:2">
+    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
+    <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
+    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="7"/>
     </row>
-    <row r="7" customHeight="1" spans="1:2">
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" customHeight="1" spans="1:2">
+    <row r="8" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:2">
+    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>